--- a/AW Statistics.xlsx
+++ b/AW Statistics.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\longo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2C6819-B636-422A-BE60-0CFEDDDC361B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E12F8E-2873-4F50-B26A-71F1D56B68AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="-30" windowWidth="28860" windowHeight="15810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30" yWindow="-30" windowWidth="28860" windowHeight="15810" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="28" r:id="rId1"/>
@@ -1385,6 +1385,156 @@
     </r>
   </si>
   <si>
+    <t>Sales data by order quantity and month. How many products should we keep in stock monthly in 2021?</t>
+  </si>
+  <si>
+    <t>Sales Team performance in 2020</t>
+  </si>
+  <si>
+    <t>FullName</t>
+  </si>
+  <si>
+    <t>Hourly Wage</t>
+  </si>
+  <si>
+    <t>Quantity Sold</t>
+  </si>
+  <si>
+    <t>Statistica della regressione</t>
+  </si>
+  <si>
+    <t>R multiplo</t>
+  </si>
+  <si>
+    <t>R al quadrato</t>
+  </si>
+  <si>
+    <t>R al quadrato corretto</t>
+  </si>
+  <si>
+    <t>Errore standard</t>
+  </si>
+  <si>
+    <t>Osservazioni</t>
+  </si>
+  <si>
+    <t>ANALISI VARIANZA</t>
+  </si>
+  <si>
+    <t>Regressione</t>
+  </si>
+  <si>
+    <t>Residuo</t>
+  </si>
+  <si>
+    <t>Totale</t>
+  </si>
+  <si>
+    <t>Intercetta</t>
+  </si>
+  <si>
+    <t>gdl</t>
+  </si>
+  <si>
+    <t>SQ</t>
+  </si>
+  <si>
+    <t>MQ</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significatività F</t>
+  </si>
+  <si>
+    <t>Coefficienti</t>
+  </si>
+  <si>
+    <t>Stat t</t>
+  </si>
+  <si>
+    <t>Valore di significatività</t>
+  </si>
+  <si>
+    <t>Inferiore 95%</t>
+  </si>
+  <si>
+    <t>Superiore 95%</t>
+  </si>
+  <si>
+    <t>Inferiore 95,0%</t>
+  </si>
+  <si>
+    <t>Superiore 95,0%</t>
+  </si>
+  <si>
+    <t>Sales Amount</t>
+  </si>
+  <si>
+    <t>Regression Analysis</t>
+  </si>
+  <si>
+    <t>Is there a relationship between wages and the amount of product sold?</t>
+  </si>
+  <si>
+    <t>Linear regression</t>
+  </si>
+  <si>
+    <t>Total Sales 2020</t>
+  </si>
+  <si>
+    <t>Increase in sales ($ +1 /h)</t>
+  </si>
+  <si>
+    <t>An extra $ is equal to 1920$ every year per salesperson.</t>
+  </si>
+  <si>
+    <t>Wage cost increase</t>
+  </si>
+  <si>
+    <t>Wage cost in 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The existence of a linear relationship between wage and quantity sold can be seen from the scatter plot. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each dollar spent on raising the hourly wage results in the sale of 150 more items! </t>
+  </si>
+  <si>
+    <t>Scenario: Wage are increased by 1$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the increase in total revenue? </t>
+  </si>
+  <si>
+    <t>Avg. Rvn. per Order</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Total Sales</t>
+  </si>
+  <si>
+    <t>STATISTICAL ANALYSIS WITH EXCEL</t>
+  </si>
+  <si>
+    <t>Is there wage disparity between men and women in our company?</t>
+  </si>
+  <si>
+    <t>We're looking for a way to boost sales; what impact would raising our salespeople's salaries have on sales?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'll use data from the Adventure Works database to answer these questions. </t>
+  </si>
+  <si>
+    <t>This workbook shows how to use statistical techniques to answer business questions like:</t>
+  </si>
+  <si>
+    <t>How many units of product should we keep in stock next year?</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">The result is </t>
     </r>
@@ -1403,158 +1553,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>: you can reject the null hypothesis and accept the alternative.</t>
+      <t>: we can reject the null hypothesis and accept the alternative.</t>
     </r>
-  </si>
-  <si>
-    <t>Sales data by order quantity and month. How many products should we keep in stock monthly in 2021?</t>
-  </si>
-  <si>
-    <t>Sales Team performance in 2020</t>
-  </si>
-  <si>
-    <t>FullName</t>
-  </si>
-  <si>
-    <t>Hourly Wage</t>
-  </si>
-  <si>
-    <t>Quantity Sold</t>
-  </si>
-  <si>
-    <t>Statistica della regressione</t>
-  </si>
-  <si>
-    <t>R multiplo</t>
-  </si>
-  <si>
-    <t>R al quadrato</t>
-  </si>
-  <si>
-    <t>R al quadrato corretto</t>
-  </si>
-  <si>
-    <t>Errore standard</t>
-  </si>
-  <si>
-    <t>Osservazioni</t>
-  </si>
-  <si>
-    <t>ANALISI VARIANZA</t>
-  </si>
-  <si>
-    <t>Regressione</t>
-  </si>
-  <si>
-    <t>Residuo</t>
-  </si>
-  <si>
-    <t>Totale</t>
-  </si>
-  <si>
-    <t>Intercetta</t>
-  </si>
-  <si>
-    <t>gdl</t>
-  </si>
-  <si>
-    <t>SQ</t>
-  </si>
-  <si>
-    <t>MQ</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Significatività F</t>
-  </si>
-  <si>
-    <t>Coefficienti</t>
-  </si>
-  <si>
-    <t>Stat t</t>
-  </si>
-  <si>
-    <t>Valore di significatività</t>
-  </si>
-  <si>
-    <t>Inferiore 95%</t>
-  </si>
-  <si>
-    <t>Superiore 95%</t>
-  </si>
-  <si>
-    <t>Inferiore 95,0%</t>
-  </si>
-  <si>
-    <t>Superiore 95,0%</t>
-  </si>
-  <si>
-    <t>Sales Amount</t>
-  </si>
-  <si>
-    <t>Regression Analysis</t>
-  </si>
-  <si>
-    <t>Is there a relationship between wages and the amount of product sold?</t>
-  </si>
-  <si>
-    <t>Linear regression</t>
-  </si>
-  <si>
-    <t>Total Sales 2020</t>
-  </si>
-  <si>
-    <t>Increase in sales ($ +1 /h)</t>
-  </si>
-  <si>
-    <t>An extra $ is equal to 1920$ every year per salesperson.</t>
-  </si>
-  <si>
-    <t>Wage cost increase</t>
-  </si>
-  <si>
-    <t>Wage cost in 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The existence of a linear relationship between wage and quantity sold can be seen from the scatter plot. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Each dollar spent on raising the hourly wage results in the sale of 150 more items! </t>
-  </si>
-  <si>
-    <t>Scenario: Wage are increased by 1$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the increase in total revenue? </t>
-  </si>
-  <si>
-    <t>Avg. Rvn. per Order</t>
-  </si>
-  <si>
-    <t>Product Name</t>
-  </si>
-  <si>
-    <t>Total Sales</t>
-  </si>
-  <si>
-    <t>STATISTICAL ANALYSIS WITH EXCEL</t>
-  </si>
-  <si>
-    <t>Is there wage disparity between men and women in our company?</t>
-  </si>
-  <si>
-    <t>We're looking for a way to boost sales; what impact would raising our salespeople's salaries have on sales?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I'll use data from the Adventure Works database to answer these questions. </t>
-  </si>
-  <si>
-    <t>This workbook shows how to use statistical techniques to answer business questions like:</t>
-  </si>
-  <si>
-    <t>How many units of product should we keep in stock next year?</t>
   </si>
 </sst>
 </file>
@@ -5020,7 +5020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCEC0F7-85BF-4D68-80F5-8F3C38124DFB}">
   <dimension ref="B2:B10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5029,12 +5029,12 @@
   <sheetData>
     <row r="2" spans="2:2" ht="22.5" x14ac:dyDescent="0.6">
       <c r="B2" s="68" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B4" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.45">
@@ -5042,17 +5042,17 @@
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B6" s="58" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B7" s="58" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B8" s="58" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.45">
@@ -5060,7 +5060,7 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B10" s="13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -5117,7 +5117,7 @@
     </row>
     <row r="2" spans="2:24" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B2" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M2" s="61"/>
       <c r="N2" s="61"/>
@@ -5143,16 +5143,16 @@
     </row>
     <row r="4" spans="2:24" ht="13.9" x14ac:dyDescent="0.4">
       <c r="C4" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>428</v>
-      </c>
       <c r="F4" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J4" s="61"/>
       <c r="K4" s="61"/>
@@ -5895,7 +5895,7 @@
   </sheetPr>
   <dimension ref="B1:J77"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5915,34 +5915,34 @@
   <sheetData>
     <row r="1" spans="2:2" ht="20.65" x14ac:dyDescent="0.6">
       <c r="B1" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="2" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B2" s="12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="20.65" x14ac:dyDescent="0.6">
       <c r="B26" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="13.9" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="42" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C28" s="42"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B29" s="43" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C29" s="43">
         <v>0.95860929195535405</v>
@@ -5950,7 +5950,7 @@
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B30" s="43" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C30" s="44">
         <v>0.91893177462314524</v>
@@ -5958,7 +5958,7 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B31" s="43" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C31" s="43">
         <v>0.9135272262646883</v>
@@ -5966,7 +5966,7 @@
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B32" s="43" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C32" s="43">
         <v>1073.9511632442061</v>
@@ -5974,7 +5974,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="45" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C33" s="45">
         <v>17</v>
@@ -5982,30 +5982,30 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B35" s="13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="46"/>
       <c r="C36" s="46" t="s">
+        <v>439</v>
+      </c>
+      <c r="D36" s="46" t="s">
         <v>440</v>
       </c>
-      <c r="D36" s="46" t="s">
+      <c r="E36" s="46" t="s">
         <v>441</v>
       </c>
-      <c r="E36" s="46" t="s">
+      <c r="F36" s="46" t="s">
         <v>442</v>
       </c>
-      <c r="F36" s="46" t="s">
+      <c r="G36" s="46" t="s">
         <v>443</v>
-      </c>
-      <c r="G36" s="46" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="43" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C37" s="43">
         <v>1</v>
@@ -6025,7 +6025,7 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="43" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C38" s="43">
         <v>15</v>
@@ -6041,7 +6041,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B39" s="45" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C39" s="45">
         <v>16</v>
@@ -6057,33 +6057,33 @@
     <row r="41" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="46"/>
       <c r="C41" s="46" t="s">
+        <v>444</v>
+      </c>
+      <c r="D41" s="46" t="s">
+        <v>432</v>
+      </c>
+      <c r="E41" s="46" t="s">
         <v>445</v>
       </c>
-      <c r="D41" s="46" t="s">
-        <v>433</v>
-      </c>
-      <c r="E41" s="46" t="s">
+      <c r="F41" s="46" t="s">
         <v>446</v>
       </c>
-      <c r="F41" s="46" t="s">
+      <c r="G41" s="46" t="s">
         <v>447</v>
       </c>
-      <c r="G41" s="46" t="s">
+      <c r="H41" s="46" t="s">
         <v>448</v>
       </c>
-      <c r="H41" s="46" t="s">
+      <c r="I41" s="46" t="s">
         <v>449</v>
       </c>
-      <c r="I41" s="46" t="s">
+      <c r="J41" s="46" t="s">
         <v>450</v>
-      </c>
-      <c r="J41" s="46" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="43" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C42" s="43">
         <v>-2211.344558512299</v>
@@ -6112,7 +6112,7 @@
     </row>
     <row r="43" spans="2:10" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B43" s="45" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C43" s="48">
         <v>150.18623245020368</v>
@@ -6141,25 +6141,25 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="20.65" x14ac:dyDescent="0.6">
       <c r="B47" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="C50" s="50" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D50" s="50" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.35">
@@ -6371,7 +6371,7 @@
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C70" s="55">
         <f>SUM(SalesTeamData[Sales Amount])</f>
@@ -6380,7 +6380,7 @@
     </row>
     <row r="71" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C71" s="55">
         <f>SUM(D51:D67)</f>
@@ -6403,7 +6403,7 @@
     </row>
     <row r="73" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="58" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G73" s="57"/>
       <c r="H73" s="57"/>
@@ -6412,7 +6412,7 @@
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C74" s="55">
         <f>SUM(SalesTeamData[Hourly Wage])*1920</f>
@@ -6425,7 +6425,7 @@
     </row>
     <row r="75" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C75" s="55">
         <f>1920*17</f>
@@ -6500,10 +6500,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>466</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>467</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>402</v>
@@ -7899,7 +7899,7 @@
     </row>
     <row r="2" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B2" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -23815,7 +23815,7 @@
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="38" t="s">
-        <v>423</v>
+        <v>473</v>
       </c>
       <c r="D26" s="38"/>
       <c r="E26" s="38"/>
